--- a/data/SAF-T/SAF-T_Schema_v_2.00ABIE.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00ABIE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15979E-6014-4365-94BC-351627DD99AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379211A9-843D-4F63-A609-DDE82A3945EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="30" windowWidth="24870" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7545" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7545" uniqueCount="1198">
   <si>
     <t>kind</t>
   </si>
@@ -3676,6 +3676,10 @@
   </si>
   <si>
     <t>Details</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RFBIE</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4256,6 +4260,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -4299,62 +4359,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4787,13 +4791,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4811,7 +4816,7 @@
     <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="4.875" style="2" customWidth="1"/>
     <col min="13" max="14" width="26.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="39.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="74" style="2" customWidth="1"/>
     <col min="17" max="17" width="50.125" style="2" customWidth="1"/>
     <col min="18" max="16384" width="10.875" style="2"/>
@@ -4852,7 +4857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4901,7 +4906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4954,7 +4959,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5100,7 +5105,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5150,7 +5155,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5173,7 +5178,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5205,7 +5210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5237,7 +5242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5365,7 +5370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5397,7 +5402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5513,7 +5518,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5652,7 +5657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5734,7 +5739,7 @@
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5789,7 +5794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5821,7 +5826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5908,7 +5913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5957,7 +5962,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5980,7 +5985,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6006,7 +6011,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6038,7 +6043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6195,7 +6200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6334,7 +6339,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6360,7 +6365,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6409,7 +6414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6508,7 +6513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6598,7 +6603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6624,7 +6629,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6656,7 +6661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6688,7 +6693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6714,7 +6719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6737,7 +6742,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6876,7 +6881,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7053,7 +7058,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7076,7 +7081,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7108,7 +7113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7140,7 +7145,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7227,7 +7232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7253,7 +7258,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7276,7 +7281,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7340,7 +7345,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7369,7 +7374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7395,7 +7400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7444,7 +7449,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7508,7 +7513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7572,7 +7577,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7601,7 +7606,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7627,7 +7632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7789,7 +7794,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7815,7 +7820,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7870,7 +7875,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7934,7 +7939,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8030,7 +8035,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8097,7 +8102,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8152,7 +8157,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8184,7 +8189,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8216,7 +8221,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8265,7 +8270,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8378,7 +8383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8404,7 +8409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8453,7 +8458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8476,7 +8481,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8508,7 +8513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8671,7 +8676,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8793,7 +8798,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8825,7 +8830,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8857,7 +8862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8889,7 +8894,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8953,7 +8958,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8985,7 +8990,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9043,7 +9048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9069,7 +9074,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9101,7 +9106,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9133,7 +9138,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -9159,7 +9164,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -9182,7 +9187,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -9208,7 +9213,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -9231,7 +9236,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -9254,7 +9259,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -9318,7 +9323,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -9344,7 +9349,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -9393,7 +9398,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -9416,7 +9421,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9483,7 +9488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -9547,7 +9552,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9649,7 +9654,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9713,7 +9718,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9745,7 +9750,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9774,7 +9779,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9800,7 +9805,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9826,7 +9831,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9849,7 +9854,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9881,7 +9886,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9913,7 +9918,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9945,7 +9950,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9977,7 +9982,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -10009,7 +10014,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -10035,7 +10040,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -10058,7 +10063,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -10090,7 +10095,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -10154,7 +10159,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -10218,7 +10223,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -10250,7 +10255,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -10282,7 +10287,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -10314,7 +10319,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -10346,7 +10351,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -10378,7 +10383,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -10407,7 +10412,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -10459,7 +10464,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -10482,7 +10487,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -10546,7 +10551,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -10578,7 +10583,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -10604,7 +10609,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -10627,7 +10632,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -10659,7 +10664,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -10688,7 +10693,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -10720,7 +10725,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -10752,7 +10757,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -10778,7 +10783,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10801,7 +10806,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10833,7 +10838,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10865,7 +10870,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10897,7 +10902,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10946,7 +10951,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10978,7 +10983,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -11007,7 +11012,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -11065,7 +11070,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -11097,7 +11102,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -11129,7 +11134,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -11161,7 +11166,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -11193,7 +11198,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -11327,7 +11332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -11359,7 +11364,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -11385,7 +11390,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -11408,7 +11413,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -11475,7 +11480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -11507,7 +11512,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -11673,7 +11678,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -11699,7 +11704,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -11722,7 +11727,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -11754,7 +11759,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -11786,7 +11791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -11815,7 +11820,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -11841,7 +11846,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -11864,7 +11869,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -11890,7 +11895,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -11913,7 +11918,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -11942,7 +11947,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -11974,7 +11979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -12006,7 +12011,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -12035,7 +12040,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -12061,7 +12066,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -12084,7 +12089,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -12113,7 +12118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -12145,7 +12150,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -12177,7 +12182,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -12206,7 +12211,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12255,7 +12260,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -12284,7 +12289,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -12316,7 +12321,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -12374,7 +12379,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -12397,7 +12402,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -12429,7 +12434,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -12458,7 +12463,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -12519,7 +12524,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -12583,7 +12588,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -12615,7 +12620,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -12647,7 +12652,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -12679,7 +12684,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -12711,7 +12716,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -12737,7 +12742,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -12760,7 +12765,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -12792,7 +12797,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -12859,7 +12864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -12961,7 +12966,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13025,7 +13030,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -13051,7 +13056,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -13083,7 +13088,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -13138,7 +13143,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -13161,7 +13166,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -13193,7 +13198,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -13225,7 +13230,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -13257,7 +13262,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -13315,7 +13320,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -13338,7 +13343,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -13370,7 +13375,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -13402,7 +13407,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -13434,7 +13439,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -13460,7 +13465,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -13483,7 +13488,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -13512,7 +13517,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -13544,7 +13549,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -13576,7 +13581,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -13602,7 +13607,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -13625,7 +13630,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -13657,7 +13662,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -13689,7 +13694,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -13721,7 +13726,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -13753,7 +13758,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -13820,7 +13825,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -13852,7 +13857,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -13884,7 +13889,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -13910,7 +13915,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -13933,7 +13938,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -13965,7 +13970,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -13997,7 +14002,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -14029,7 +14034,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -14055,7 +14060,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -14078,7 +14083,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -14250,7 +14255,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -14282,7 +14287,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -14354,7 +14359,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>26</v>
+        <v>1197</v>
       </c>
       <c r="C325" s="2">
         <v>5</v>
@@ -14384,7 +14389,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -14451,7 +14456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -14483,7 +14488,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -14550,7 +14555,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -14582,7 +14587,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -14611,7 +14616,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -14640,7 +14645,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -14695,7 +14700,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -14721,7 +14726,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -14814,7 +14819,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -14846,7 +14851,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -14910,7 +14915,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -14939,7 +14944,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -14965,7 +14970,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -15032,7 +15037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -15067,7 +15072,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -15099,7 +15104,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -15128,7 +15133,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -15154,7 +15159,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -15180,7 +15185,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -15203,7 +15208,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -15235,7 +15240,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -15267,7 +15272,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -15299,7 +15304,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -15331,7 +15336,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -15354,7 +15359,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -15380,7 +15385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -15406,7 +15411,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -15429,7 +15434,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -15455,7 +15460,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -15478,7 +15483,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -15504,7 +15509,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -15559,7 +15564,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -15591,7 +15596,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -15623,7 +15628,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -15649,7 +15654,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -15672,7 +15677,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -15698,7 +15703,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -15721,7 +15726,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -15753,7 +15758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -15785,7 +15790,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -15817,7 +15822,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -15849,7 +15854,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -15910,7 +15915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -15936,7 +15941,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -15965,7 +15970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -15997,7 +16002,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -16029,7 +16034,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -16061,7 +16066,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -16093,7 +16098,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -16125,7 +16130,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -16157,7 +16162,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -16189,7 +16194,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -16221,7 +16226,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -16253,7 +16258,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -16285,7 +16290,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -16317,7 +16322,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -16343,7 +16348,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -16366,7 +16371,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -16398,7 +16403,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -16430,7 +16435,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -16462,7 +16467,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -16491,7 +16496,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -16549,7 +16554,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -16581,7 +16586,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -16613,7 +16618,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -16645,7 +16650,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -16677,7 +16682,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -16709,7 +16714,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -16741,7 +16746,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -16770,7 +16775,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -16796,7 +16801,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -16822,7 +16827,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -16845,7 +16850,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -16877,7 +16882,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -16909,7 +16914,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -16938,7 +16943,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -16964,7 +16969,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -16996,7 +17001,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -17028,7 +17033,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -17060,7 +17065,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -17092,7 +17097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -17124,7 +17129,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -17156,7 +17161,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -17188,7 +17193,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -17217,7 +17222,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -17243,7 +17248,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -17269,7 +17274,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -17292,7 +17297,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -17324,7 +17329,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -17356,7 +17361,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -17388,7 +17393,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -17420,7 +17425,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -17446,7 +17451,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -17478,7 +17483,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -17507,7 +17512,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -17533,7 +17538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -17556,7 +17561,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -17588,7 +17593,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -17620,7 +17625,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -17652,7 +17657,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -17684,7 +17689,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -17710,7 +17715,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -17733,7 +17738,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -17765,7 +17770,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -17797,7 +17802,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -17829,7 +17834,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -17861,7 +17866,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -17884,7 +17889,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -17916,7 +17921,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -17948,7 +17953,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -17980,7 +17985,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -18012,7 +18017,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -18044,7 +18049,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -18073,7 +18078,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -18096,7 +18101,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -18154,7 +18159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -18183,7 +18188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -18212,7 +18217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -18241,7 +18246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -18270,7 +18275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -18302,7 +18307,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -18334,7 +18339,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -18360,7 +18365,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -18383,7 +18388,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -18415,7 +18420,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -18444,7 +18449,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -18467,7 +18472,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -18499,7 +18504,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -18531,7 +18536,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -18560,7 +18565,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -18583,7 +18588,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -18615,7 +18620,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -18647,7 +18652,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -18676,7 +18681,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -18699,7 +18704,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -18725,7 +18730,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -18748,7 +18753,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -18780,7 +18785,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -18803,7 +18808,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -18835,7 +18840,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -18867,7 +18872,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -18899,7 +18904,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -18922,7 +18927,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -18954,7 +18959,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -18983,7 +18988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -19012,7 +19017,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -19041,7 +19046,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -19070,7 +19075,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -19099,7 +19104,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -19119,7 +19124,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -19151,7 +19156,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -19180,7 +19185,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -19209,7 +19214,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -19238,7 +19243,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -19267,7 +19272,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -19296,7 +19301,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -19316,7 +19321,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -19345,7 +19350,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -19374,7 +19379,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -19403,7 +19408,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -19432,7 +19437,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -19461,7 +19466,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -19484,7 +19489,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -19513,7 +19518,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -19542,7 +19547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -19571,7 +19576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -19600,7 +19605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -19629,7 +19634,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -19652,7 +19657,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -19681,7 +19686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -19710,7 +19715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -19739,7 +19744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -19768,7 +19773,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -19791,7 +19796,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -19823,7 +19828,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -19855,7 +19860,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -19887,7 +19892,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -19919,7 +19924,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -19951,7 +19956,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -19983,7 +19988,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -20015,7 +20020,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -20047,7 +20052,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -20079,7 +20084,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -20111,7 +20116,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -20143,7 +20148,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -20166,7 +20171,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -20195,7 +20200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -20224,7 +20229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -20253,7 +20258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -20285,7 +20290,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -20314,7 +20319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -20343,7 +20348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -20375,7 +20380,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -20404,7 +20409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -20427,7 +20432,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -20459,7 +20464,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -20491,7 +20496,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -20520,7 +20525,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -20546,7 +20551,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -20569,7 +20574,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -20589,7 +20594,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -20621,7 +20626,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -20653,7 +20658,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -20676,7 +20681,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -20696,7 +20701,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -20725,7 +20730,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -20751,7 +20756,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -20780,7 +20785,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -20806,7 +20811,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -20838,7 +20843,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -20870,7 +20875,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -20922,7 +20927,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -20954,7 +20959,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -20986,7 +20991,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -21018,7 +21023,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -21050,7 +21055,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -21073,7 +21078,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -21105,7 +21110,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -21137,7 +21142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -21169,7 +21174,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -21201,7 +21206,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -21233,7 +21238,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -21262,7 +21267,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -21294,7 +21299,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -21326,7 +21331,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -21343,7 +21348,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -21360,7 +21365,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -21377,7 +21382,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -21394,7 +21399,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -21411,7 +21416,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -21428,7 +21433,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -21445,7 +21450,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -21462,7 +21467,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -21479,7 +21484,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -21496,7 +21501,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -21513,90 +21518,96 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="D574" s="3"/>
       <c r="E574" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P574" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:P574" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="Q523:Q530 B563:O574 Q563:Q574 B523:M530 B1:Q522 B531:Q562 B575:Q1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>"ACC"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>"ABIE"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>"IDCC"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>"IDBIE"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>"ASCC"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>"ASBIE"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>"RFCC"=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>"RFBIE"=$B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N523:P529 P563:P573">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>"ACC"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>"ABIE"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>"IDCC"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>"IDBIE"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>"ASCC"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="18" priority="36">
       <formula>"ASBIE"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>"RFCC"=$B524</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38">
+    <cfRule type="expression" dxfId="16" priority="38">
       <formula>"RFBIE"=$B524</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N530:P530">
-    <cfRule type="expression" dxfId="23" priority="119">
+    <cfRule type="expression" dxfId="15" priority="119">
       <formula>"ACC"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="120">
+    <cfRule type="expression" dxfId="14" priority="120">
       <formula>"ABIE"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="121">
+    <cfRule type="expression" dxfId="13" priority="121">
       <formula>"IDCC"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="122">
+    <cfRule type="expression" dxfId="12" priority="122">
       <formula>"IDBIE"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="123">
+    <cfRule type="expression" dxfId="11" priority="123">
       <formula>"ASCC"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="124">
+    <cfRule type="expression" dxfId="10" priority="124">
       <formula>"ASBIE"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="125">
+    <cfRule type="expression" dxfId="9" priority="125">
       <formula>"RFCC"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="126">
+    <cfRule type="expression" dxfId="8" priority="126">
       <formula>"RFBIE"=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34463,30 +34474,30 @@
   <autoFilter ref="A1:S475" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:S1048576">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>"ABIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"IDBIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>"ASBIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>"RFBIE"=$A1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>"ABIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"IDBIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>"ASBIE"=$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>"RFBIE"=$A1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/SAF-T/SAF-T_Schema_v_2.00ABIE.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00ABIE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/Standard_Formats/data/SAF-T/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909D89B6-518E-F14C-BA64-11247075BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA81491-EECE-4A74-B248-51DFBBD8CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="640" windowWidth="29100" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="30" windowWidth="27555" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00ABIE (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7546" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7550" uniqueCount="1214">
   <si>
     <t>kind</t>
   </si>
@@ -3717,6 +3717,22 @@
   </si>
   <si>
     <t>refDEN</t>
+  </si>
+  <si>
+    <t>ObjectClassTermQualifier</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PropertyTermQualifier</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DatatypeQualifier</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AssciatedObjectClassQualifier</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -3727,21 +3743,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="游ゴシック Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -3749,7 +3765,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3757,7 +3773,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3765,35 +3781,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3801,7 +3817,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3809,14 +3825,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3824,14 +3840,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3839,7 +3855,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3847,20 +3863,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3868,7 +3884,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4829,35 +4845,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K582" sqref="K582"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="26.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="26.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="39.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="74" style="2" customWidth="1"/>
-    <col min="17" max="17" width="50.1640625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="50.125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4870,15 +4886,27 @@
       <c r="E1" s="2" t="s">
         <v>1091</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>1210</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>1115</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>1211</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>1116</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>1212</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>1117</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>1213</v>
+      </c>
       <c r="M1" s="2" t="s">
         <v>1118</v>
       </c>
@@ -4892,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4912,7 +4940,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4941,7 +4969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4967,7 +4995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4994,7 +5022,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5026,7 +5054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5058,7 +5086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5087,7 +5115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5113,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5140,7 +5168,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5163,7 +5191,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5190,7 +5218,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5213,7 +5241,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5245,7 +5273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5277,7 +5305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5309,7 +5337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5341,7 +5369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5373,7 +5401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5405,7 +5433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5437,7 +5465,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5463,7 +5491,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5495,7 +5523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5527,7 +5555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5553,7 +5581,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5585,7 +5613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5617,7 +5645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5643,7 +5671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5666,7 +5694,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5692,7 +5720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5715,7 +5743,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5747,7 +5775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5774,7 +5802,7 @@
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5797,7 +5825,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5829,7 +5857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5861,7 +5889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5890,7 +5918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5925,7 +5953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5951,7 +5979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5974,7 +6002,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6000,7 +6028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6023,7 +6051,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6049,7 +6077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6081,7 +6109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6113,7 +6141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6148,7 +6176,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6174,7 +6202,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6206,7 +6234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6238,7 +6266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6264,7 +6292,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6296,7 +6324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6328,7 +6356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6354,7 +6382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6377,7 +6405,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6403,7 +6431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6426,7 +6454,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6452,7 +6480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6484,7 +6512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6516,7 +6544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6551,7 +6579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6577,7 +6605,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6609,7 +6637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6641,7 +6669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6667,7 +6695,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6699,7 +6727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6731,7 +6759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6757,7 +6785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6780,7 +6808,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6806,7 +6834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6829,7 +6857,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6861,7 +6889,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6893,7 +6921,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6919,7 +6947,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6942,7 +6970,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6974,7 +7002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7006,7 +7034,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7038,7 +7066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7070,7 +7098,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7096,7 +7124,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7119,7 +7147,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7151,7 +7179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7183,7 +7211,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7215,7 +7243,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7244,7 +7272,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7270,7 +7298,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7296,7 +7324,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7319,7 +7347,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7351,7 +7379,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7383,7 +7411,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7412,7 +7440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7438,7 +7466,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7464,7 +7492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7487,7 +7515,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7519,7 +7547,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7551,7 +7579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7583,7 +7611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7615,7 +7643,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7644,7 +7672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7670,7 +7698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7696,7 +7724,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7719,7 +7747,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7751,7 +7779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7783,7 +7811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7809,7 +7837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7832,7 +7860,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7858,7 +7886,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7881,7 +7909,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7913,7 +7941,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7945,7 +7973,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7977,7 +8005,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8009,7 +8037,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8041,7 +8069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8073,7 +8101,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8105,7 +8133,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8140,7 +8168,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8169,7 +8197,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8195,7 +8223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8227,7 +8255,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8259,7 +8287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8285,7 +8313,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8308,7 +8336,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8334,7 +8362,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8357,7 +8385,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8389,7 +8417,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8421,7 +8449,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8447,7 +8475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8470,7 +8498,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8496,7 +8524,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8519,7 +8547,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8551,7 +8579,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8583,7 +8611,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8618,7 +8646,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8650,7 +8678,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8682,7 +8710,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8714,7 +8742,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8746,7 +8774,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8781,7 +8809,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8810,7 +8838,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8836,7 +8864,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8868,7 +8896,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8900,7 +8928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8932,7 +8960,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8964,7 +8992,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8996,7 +9024,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9028,7 +9056,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9060,7 +9088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9086,7 +9114,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9112,7 +9140,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9144,7 +9172,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9176,7 +9204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -9202,7 +9230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -9225,7 +9253,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -9251,7 +9279,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -9274,7 +9302,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -9297,7 +9325,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -9329,7 +9357,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -9361,7 +9389,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -9387,7 +9415,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -9410,7 +9438,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -9436,7 +9464,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -9459,7 +9487,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9491,7 +9519,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -9526,7 +9554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -9558,7 +9586,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -9590,7 +9618,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -9622,7 +9650,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -9657,7 +9685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9692,7 +9720,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9724,7 +9752,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9756,7 +9784,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9788,7 +9816,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9817,7 +9845,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9843,7 +9871,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9869,7 +9897,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9892,7 +9920,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9924,7 +9952,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9956,7 +9984,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9988,7 +10016,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -10020,7 +10048,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -10052,7 +10080,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -10078,7 +10106,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -10101,7 +10129,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -10133,7 +10161,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -10165,7 +10193,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -10197,7 +10225,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -10229,7 +10257,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -10261,7 +10289,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -10293,7 +10321,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -10325,7 +10353,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -10357,7 +10385,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -10389,7 +10417,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -10421,7 +10449,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -10450,7 +10478,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -10476,7 +10504,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -10502,7 +10530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -10525,7 +10553,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -10557,7 +10585,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -10589,7 +10617,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -10621,7 +10649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -10647,7 +10675,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -10670,7 +10698,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -10702,7 +10730,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -10731,7 +10759,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -10763,7 +10791,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -10795,7 +10823,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -10821,7 +10849,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10844,7 +10872,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10876,7 +10904,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10908,7 +10936,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10940,7 +10968,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10966,7 +10994,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10989,7 +11017,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -11021,7 +11049,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -11050,7 +11078,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -11076,7 +11104,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -11108,7 +11136,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -11140,7 +11168,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -11172,7 +11200,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -11204,7 +11232,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -11236,7 +11264,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -11268,7 +11296,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -11300,7 +11328,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -11335,7 +11363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -11370,7 +11398,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -11402,7 +11430,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -11428,7 +11456,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -11451,7 +11479,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -11483,7 +11511,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -11518,7 +11546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -11550,7 +11578,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -11582,7 +11610,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -11614,7 +11642,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -11649,7 +11677,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -11684,7 +11712,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -11716,7 +11744,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -11742,7 +11770,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -11765,7 +11793,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -11797,7 +11825,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -11829,7 +11857,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -11858,7 +11886,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -11884,7 +11912,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -11907,7 +11935,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -11933,7 +11961,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -11956,7 +11984,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -11985,7 +12013,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -12017,7 +12045,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -12049,7 +12077,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -12078,7 +12106,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -12104,7 +12132,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -12127,7 +12155,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -12156,7 +12184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -12188,7 +12216,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -12220,7 +12248,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -12249,7 +12277,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -12275,7 +12303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12298,7 +12326,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -12327,7 +12355,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -12359,7 +12387,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -12391,7 +12419,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -12417,7 +12445,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -12440,7 +12468,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -12472,7 +12500,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -12501,7 +12529,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -12527,7 +12555,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -12562,7 +12590,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -12594,7 +12622,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -12626,7 +12654,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -12658,7 +12686,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -12690,7 +12718,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -12722,7 +12750,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -12754,7 +12782,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -12780,7 +12808,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -12803,7 +12831,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -12835,7 +12863,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -12867,7 +12895,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -12902,7 +12930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -12934,7 +12962,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -12969,7 +12997,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -13004,7 +13032,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -13036,7 +13064,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13068,7 +13096,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -13094,7 +13122,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -13126,7 +13154,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -13155,7 +13183,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -13181,7 +13209,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -13204,7 +13232,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -13236,7 +13264,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -13268,7 +13296,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -13300,7 +13328,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -13332,7 +13360,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -13358,7 +13386,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -13381,7 +13409,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -13413,7 +13441,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -13445,7 +13473,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -13477,7 +13505,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -13503,7 +13531,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -13526,7 +13554,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -13555,7 +13583,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -13587,7 +13615,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -13619,7 +13647,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -13645,7 +13673,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -13668,7 +13696,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -13700,7 +13728,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -13732,7 +13760,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -13764,7 +13792,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -13796,7 +13824,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -13828,7 +13856,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -13863,7 +13891,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -13895,7 +13923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -13927,7 +13955,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -13953,7 +13981,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -13976,7 +14004,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -14008,7 +14036,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -14040,7 +14068,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -14072,7 +14100,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -14098,7 +14126,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -14121,7 +14149,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -14153,7 +14181,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -14188,7 +14216,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -14223,7 +14251,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -14258,7 +14286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -14293,7 +14321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -14325,7 +14353,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -14357,7 +14385,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -14392,7 +14420,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -14427,7 +14455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -14459,7 +14487,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -14494,7 +14522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -14526,7 +14554,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -14558,7 +14586,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -14593,7 +14621,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -14625,7 +14653,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -14654,7 +14682,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -14683,7 +14711,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -14709,7 +14737,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -14738,7 +14766,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -14764,7 +14792,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -14787,7 +14815,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -14822,7 +14850,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -14857,7 +14885,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -14889,7 +14917,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -14921,7 +14949,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -14953,7 +14981,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -14982,7 +15010,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -15008,7 +15036,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -15040,7 +15068,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -15075,7 +15103,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -15110,7 +15138,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -15142,7 +15170,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -15171,7 +15199,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -15197,7 +15225,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -15223,7 +15251,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -15246,7 +15274,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -15278,7 +15306,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -15310,7 +15338,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -15342,7 +15370,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -15374,7 +15402,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -15397,7 +15425,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -15423,7 +15451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -15449,7 +15477,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -15472,7 +15500,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -15498,7 +15526,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -15521,7 +15549,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -15547,7 +15575,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -15570,7 +15598,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -15602,7 +15630,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -15634,7 +15662,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -15666,7 +15694,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -15692,7 +15720,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -15715,7 +15743,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -15741,7 +15769,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -15764,7 +15792,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -15796,7 +15824,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -15828,7 +15856,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -15860,7 +15888,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -15892,7 +15920,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -15924,7 +15952,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -15953,7 +15981,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -15979,7 +16007,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -16008,7 +16036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -16040,7 +16068,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -16072,7 +16100,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -16104,7 +16132,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -16136,7 +16164,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -16168,7 +16196,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -16200,7 +16228,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -16232,7 +16260,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -16264,7 +16292,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -16296,7 +16324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -16328,7 +16356,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -16360,7 +16388,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -16386,7 +16414,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -16409,7 +16437,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -16441,7 +16469,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -16473,7 +16501,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -16505,7 +16533,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -16534,7 +16562,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -16560,7 +16588,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -16592,7 +16620,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -16624,7 +16652,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -16656,7 +16684,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -16688,7 +16716,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -16720,7 +16748,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -16752,7 +16780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -16784,7 +16812,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -16813,7 +16841,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -16839,7 +16867,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -16865,7 +16893,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -16888,7 +16916,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -16920,7 +16948,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -16952,7 +16980,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -16981,7 +17009,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -17007,7 +17035,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -17039,7 +17067,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -17071,7 +17099,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -17103,7 +17131,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -17135,7 +17163,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -17167,7 +17195,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -17199,7 +17227,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -17231,7 +17259,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -17260,7 +17288,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -17286,7 +17314,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -17312,7 +17340,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -17335,7 +17363,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -17367,7 +17395,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -17399,7 +17427,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -17431,7 +17459,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -17463,7 +17491,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -17489,7 +17517,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -17521,7 +17549,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -17550,7 +17578,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -17576,7 +17604,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -17599,7 +17627,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -17631,7 +17659,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -17663,7 +17691,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -17695,7 +17723,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -17727,7 +17755,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -17753,7 +17781,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -17776,7 +17804,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -17808,7 +17836,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -17840,7 +17868,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -17872,7 +17900,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -17904,7 +17932,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -17927,7 +17955,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -17959,7 +17987,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -17991,7 +18019,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -18023,7 +18051,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -18055,7 +18083,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -18087,7 +18115,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -18116,7 +18144,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -18139,7 +18167,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -18168,7 +18196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -18197,7 +18225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -18226,7 +18254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -18255,7 +18283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -18284,7 +18312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -18313,7 +18341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -18345,7 +18373,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -18377,7 +18405,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -18403,7 +18431,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -18426,7 +18454,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -18458,7 +18486,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -18487,7 +18515,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -18510,7 +18538,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -18542,7 +18570,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -18574,7 +18602,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -18603,7 +18631,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -18626,7 +18654,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -18658,7 +18686,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -18690,7 +18718,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -18719,7 +18747,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -18742,7 +18770,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -18768,7 +18796,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -18791,7 +18819,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -18823,7 +18851,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -18846,7 +18874,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -18878,7 +18906,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -18910,7 +18938,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -18942,7 +18970,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -18965,7 +18993,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -18997,7 +19025,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -19026,7 +19054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -19055,7 +19083,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -19084,7 +19112,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -19113,7 +19141,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -19142,7 +19170,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -19162,7 +19190,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -19194,7 +19222,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -19223,7 +19251,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -19252,7 +19280,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -19281,7 +19309,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -19310,7 +19338,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -19339,7 +19367,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -19359,7 +19387,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -19388,7 +19416,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -19417,7 +19445,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -19446,7 +19474,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -19475,7 +19503,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -19504,7 +19532,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -19527,7 +19555,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -19556,7 +19584,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -19585,7 +19613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -19614,7 +19642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -19643,7 +19671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -19672,7 +19700,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -19695,7 +19723,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -19724,7 +19752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -19753,7 +19781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -19782,7 +19810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -19811,7 +19839,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -19834,7 +19862,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -19866,7 +19894,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -19898,7 +19926,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -19930,7 +19958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -19962,7 +19990,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -19994,7 +20022,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -20026,7 +20054,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -20058,7 +20086,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -20090,7 +20118,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -20122,7 +20150,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -20154,7 +20182,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -20186,7 +20214,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -20209,7 +20237,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -20238,7 +20266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -20267,7 +20295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -20296,7 +20324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -20328,7 +20356,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -20357,7 +20385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -20386,7 +20414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -20418,7 +20446,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -20447,7 +20475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -20470,7 +20498,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -20502,7 +20530,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -20534,7 +20562,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -20563,7 +20591,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -20589,7 +20617,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -20612,7 +20640,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -20632,7 +20660,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -20664,7 +20692,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -20696,7 +20724,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -20719,7 +20747,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -20739,7 +20767,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -20768,7 +20796,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -20794,7 +20822,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -20823,7 +20851,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -20849,7 +20877,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -20881,7 +20909,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -20913,7 +20941,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -20933,7 +20961,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -20965,7 +20993,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -20997,7 +21025,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -21029,7 +21057,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -21061,7 +21089,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -21093,7 +21121,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -21116,7 +21144,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -21148,7 +21176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -21180,7 +21208,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -21212,7 +21240,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -21244,7 +21272,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -21276,7 +21304,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -21305,7 +21333,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -21337,7 +21365,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -21369,7 +21397,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -21386,7 +21414,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -21403,7 +21431,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -21420,7 +21448,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -21437,7 +21465,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -21454,7 +21482,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -21471,7 +21499,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -21488,7 +21516,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -21505,7 +21533,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -21522,7 +21550,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -21539,7 +21567,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -21556,7 +21584,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.4">
       <c r="D574" s="3"/>
       <c r="E574" s="2" t="s">
         <v>1093</v>
@@ -21565,7 +21593,7 @@
   </sheetData>
   <autoFilter ref="B1:P574" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="Q523:Q530 B563:O574 Q563:Q574 B523:M530 B531:Q562 B575:Q1048576 B1:Q522">
+  <conditionalFormatting sqref="Q523:Q530 Q563:Q574 B563:O574 B523:M530 B531:Q562 B575:Q1048576 B1:Q522">
     <cfRule type="expression" dxfId="31" priority="1">
       <formula>"ACC"=$B1</formula>
     </cfRule>
@@ -21659,23 +21687,23 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50" customWidth="1"/>
-    <col min="13" max="13" width="50.1640625" customWidth="1"/>
+    <col min="13" max="13" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21737,7 +21765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -21751,7 +21779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -21792,7 +21820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -21812,7 +21840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -21838,7 +21866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -21867,7 +21895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -21911,7 +21939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -21934,7 +21962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -21975,7 +22003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -22001,7 +22029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -22027,7 +22055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -22056,7 +22084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -22085,7 +22113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -22114,7 +22142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -22140,7 +22168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -22169,7 +22197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -22189,7 +22217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -22215,7 +22243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -22241,7 +22269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -22261,7 +22289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -22287,7 +22315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -22313,7 +22341,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -22336,7 +22364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -22359,7 +22387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -22385,7 +22413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -22411,7 +22439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -22437,7 +22465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -22466,7 +22494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -22492,7 +22520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -22521,7 +22549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -22544,7 +22572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -22585,7 +22613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -22605,7 +22633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -22634,7 +22662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -22663,7 +22691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -22695,7 +22723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -22715,7 +22743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -22741,7 +22769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -22767,7 +22795,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -22787,7 +22815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -22813,7 +22841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -22839,7 +22867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -22862,7 +22890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -22900,7 +22928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -22920,7 +22948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -22949,7 +22977,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -22978,7 +23006,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -23010,7 +23038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -23030,7 +23058,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -23056,7 +23084,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -23082,7 +23110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -23102,7 +23130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -23128,7 +23156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -23154,7 +23182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -23177,7 +23205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -23200,7 +23228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -23226,7 +23254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -23252,7 +23280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -23275,7 +23303,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -23301,7 +23329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -23330,7 +23358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -23359,7 +23387,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -23388,7 +23416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -23408,7 +23436,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -23434,7 +23462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -23460,7 +23488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -23489,7 +23517,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -23515,7 +23543,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -23538,7 +23566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -23564,7 +23592,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -23590,7 +23618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -23616,7 +23644,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -23639,7 +23667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -23665,7 +23693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -23691,7 +23719,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -23717,7 +23745,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -23743,7 +23771,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -23769,7 +23797,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -23792,7 +23820,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -23818,7 +23846,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -23844,7 +23872,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -23867,7 +23895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -23908,7 +23936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -23934,7 +23962,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -23963,7 +23991,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -23992,7 +24020,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -24018,7 +24046,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -24047,7 +24075,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -24076,7 +24104,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -24105,7 +24133,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -24134,7 +24162,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -24157,7 +24185,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -24183,7 +24211,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -24209,7 +24237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -24235,7 +24263,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -24255,7 +24283,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -24281,7 +24309,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -24307,7 +24335,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -24330,7 +24358,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -24371,7 +24399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -24400,7 +24428,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -24429,7 +24457,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -24458,7 +24486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -24487,7 +24515,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -24516,7 +24544,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -24545,7 +24573,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -24574,7 +24602,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -24606,7 +24634,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -24629,7 +24657,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -24655,7 +24683,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -24681,7 +24709,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -24710,7 +24738,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -24736,7 +24764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -24765,7 +24793,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -24791,7 +24819,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -24820,7 +24848,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -24843,7 +24871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -24863,7 +24891,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -24889,7 +24917,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -24915,7 +24943,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -24938,7 +24966,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -24961,7 +24989,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -24999,7 +25027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -25028,7 +25056,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -25057,7 +25085,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -25080,7 +25108,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -25121,7 +25149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -25147,7 +25175,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -25176,7 +25204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -25202,7 +25230,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -25231,7 +25259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -25257,7 +25285,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -25289,7 +25317,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -25315,7 +25343,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -25344,7 +25372,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -25370,7 +25398,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -25399,7 +25427,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -25422,7 +25450,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -25445,7 +25473,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -25474,7 +25502,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -25503,7 +25531,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -25529,7 +25557,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -25555,7 +25583,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -25584,7 +25612,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -25604,7 +25632,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -25630,7 +25658,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -25656,7 +25684,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -25685,7 +25713,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -25714,7 +25742,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -25743,7 +25771,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -25772,7 +25800,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -25801,7 +25829,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -25830,7 +25858,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -25856,7 +25884,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -25885,7 +25913,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -25911,7 +25939,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -25934,7 +25962,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -25960,7 +25988,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -25986,7 +26014,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -26015,7 +26043,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -26038,7 +26066,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -26064,7 +26092,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -26090,7 +26118,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -26116,7 +26144,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -26142,7 +26170,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -26168,7 +26196,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -26194,7 +26222,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -26220,7 +26248,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -26246,7 +26274,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -26272,7 +26300,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -26298,7 +26326,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -26324,7 +26352,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -26350,7 +26378,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -26379,7 +26407,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -26408,7 +26436,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -26434,7 +26462,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -26463,7 +26491,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -26489,7 +26517,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -26515,7 +26543,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>121</v>
       </c>
@@ -26547,7 +26575,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -26579,7 +26607,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -26608,7 +26636,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -26649,7 +26677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -26675,7 +26703,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -26704,7 +26732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -26736,7 +26764,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -26765,7 +26793,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -26794,7 +26822,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>121</v>
       </c>
@@ -26826,7 +26854,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -26858,7 +26886,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -26884,7 +26912,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -26904,7 +26932,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -26930,7 +26958,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -26956,7 +26984,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -26985,7 +27013,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -27008,7 +27036,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -27031,7 +27059,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -27057,7 +27085,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -27083,7 +27111,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -27109,7 +27137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -27135,7 +27163,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -27158,7 +27186,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -27184,7 +27212,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -27210,7 +27238,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -27236,7 +27264,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -27262,7 +27290,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -27285,7 +27313,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -27311,7 +27339,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -27337,7 +27365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -27363,7 +27391,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -27404,7 +27432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -27430,7 +27458,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -27459,7 +27487,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -27488,7 +27516,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>121</v>
       </c>
@@ -27520,7 +27548,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -27546,7 +27574,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -27575,7 +27603,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -27601,7 +27629,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -27630,7 +27658,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -27659,7 +27687,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -27688,7 +27716,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -27729,7 +27757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -27758,7 +27786,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -27787,7 +27815,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>121</v>
       </c>
@@ -27819,7 +27847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -27851,7 +27879,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>121</v>
       </c>
@@ -27883,7 +27911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>121</v>
       </c>
@@ -27915,7 +27943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>26</v>
       </c>
@@ -27944,7 +27972,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -27973,7 +28001,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -28002,7 +28030,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -28028,7 +28056,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>23</v>
       </c>
@@ -28057,7 +28085,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -28080,7 +28108,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -28109,7 +28137,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -28138,7 +28166,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -28167,7 +28195,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -28196,7 +28224,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -28219,7 +28247,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -28251,7 +28279,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -28280,7 +28308,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -28306,7 +28334,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -28329,7 +28357,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -28355,7 +28383,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -28381,7 +28409,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -28407,7 +28435,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -28448,7 +28476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -28474,7 +28502,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -28500,7 +28528,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -28529,7 +28557,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -28558,7 +28586,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -28587,7 +28615,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>121</v>
       </c>
@@ -28616,7 +28644,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -28645,7 +28673,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -28674,7 +28702,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -28697,7 +28725,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -28723,7 +28751,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -28749,7 +28777,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -28778,7 +28806,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -28819,7 +28847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -28845,7 +28873,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>121</v>
       </c>
@@ -28877,7 +28905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>121</v>
       </c>
@@ -28909,7 +28937,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>121</v>
       </c>
@@ -28941,7 +28969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>121</v>
       </c>
@@ -28973,7 +29001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -29002,7 +29030,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -29031,7 +29059,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>121</v>
       </c>
@@ -29060,7 +29088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -29092,7 +29120,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>26</v>
       </c>
@@ -29118,7 +29146,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>121</v>
       </c>
@@ -29147,7 +29175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>26</v>
       </c>
@@ -29173,7 +29201,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>26</v>
       </c>
@@ -29202,7 +29230,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>121</v>
       </c>
@@ -29231,7 +29259,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -29260,7 +29288,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -29289,7 +29317,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -29315,7 +29343,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -29341,7 +29369,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -29382,7 +29410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>121</v>
       </c>
@@ -29411,7 +29439,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>121</v>
       </c>
@@ -29440,7 +29468,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -29466,7 +29494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -29495,7 +29523,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -29521,7 +29549,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -29547,7 +29575,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>26</v>
       </c>
@@ -29573,7 +29601,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>121</v>
       </c>
@@ -29605,7 +29633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -29631,7 +29659,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>26</v>
       </c>
@@ -29660,7 +29688,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -29683,7 +29711,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -29724,7 +29752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -29753,7 +29781,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -29779,7 +29807,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -29805,7 +29833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -29831,7 +29859,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -29866,7 +29894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -29889,7 +29917,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -29912,7 +29940,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -29932,7 +29960,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -29952,7 +29980,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>26</v>
       </c>
@@ -29978,7 +30006,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>26</v>
       </c>
@@ -30004,7 +30032,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -30027,7 +30055,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>23</v>
       </c>
@@ -30047,7 +30075,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>23</v>
       </c>
@@ -30067,7 +30095,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -30093,7 +30121,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>26</v>
       </c>
@@ -30119,7 +30147,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>23</v>
       </c>
@@ -30142,7 +30170,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -30171,7 +30199,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>26</v>
       </c>
@@ -30200,7 +30228,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>23</v>
       </c>
@@ -30229,7 +30257,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>23</v>
       </c>
@@ -30258,7 +30286,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>26</v>
       </c>
@@ -30281,7 +30309,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>26</v>
       </c>
@@ -30310,7 +30338,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -30339,7 +30367,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>23</v>
       </c>
@@ -30368,7 +30396,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>26</v>
       </c>
@@ -30397,7 +30425,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>26</v>
       </c>
@@ -30426,7 +30454,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -30455,7 +30483,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -30484,7 +30512,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -30513,7 +30541,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>26</v>
       </c>
@@ -30542,7 +30570,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>26</v>
       </c>
@@ -30571,7 +30599,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>26</v>
       </c>
@@ -30600,7 +30628,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -30641,7 +30669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -30670,7 +30698,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>26</v>
       </c>
@@ -30699,7 +30727,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -30731,7 +30759,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -30760,7 +30788,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -30789,7 +30817,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>26</v>
       </c>
@@ -30818,7 +30846,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -30847,7 +30875,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -30876,7 +30904,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -30905,7 +30933,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -30934,7 +30962,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -30963,7 +30991,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -30989,7 +31017,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -31009,7 +31037,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -31038,7 +31066,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -31064,7 +31092,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -31087,7 +31115,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>26</v>
       </c>
@@ -31113,7 +31141,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -31139,7 +31167,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -31168,7 +31196,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>26</v>
       </c>
@@ -31197,7 +31225,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>26</v>
       </c>
@@ -31226,7 +31254,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -31252,7 +31280,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -31278,7 +31306,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -31304,7 +31332,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>23</v>
       </c>
@@ -31327,7 +31355,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -31356,7 +31384,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -31385,7 +31413,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>26</v>
       </c>
@@ -31411,7 +31439,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>23</v>
       </c>
@@ -31437,7 +31465,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>23</v>
       </c>
@@ -31466,7 +31494,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>23</v>
       </c>
@@ -31495,7 +31523,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>23</v>
       </c>
@@ -31524,7 +31552,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>23</v>
       </c>
@@ -31547,7 +31575,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>26</v>
       </c>
@@ -31576,7 +31604,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>23</v>
       </c>
@@ -31602,7 +31630,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>26</v>
       </c>
@@ -31631,7 +31659,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>26</v>
       </c>
@@ -31660,7 +31688,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>23</v>
       </c>
@@ -31683,7 +31711,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>23</v>
       </c>
@@ -31715,7 +31743,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>26</v>
       </c>
@@ -31744,7 +31772,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>26</v>
       </c>
@@ -31770,7 +31798,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>26</v>
       </c>
@@ -31796,7 +31824,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>16</v>
       </c>
@@ -31813,7 +31841,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>26</v>
       </c>
@@ -31842,7 +31870,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>26</v>
       </c>
@@ -31871,7 +31899,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>26</v>
       </c>
@@ -31900,7 +31928,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>26</v>
       </c>
@@ -31929,7 +31957,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>26</v>
       </c>
@@ -31958,7 +31986,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>23</v>
       </c>
@@ -31984,7 +32012,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>16</v>
       </c>
@@ -32001,7 +32029,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -32027,7 +32055,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>26</v>
       </c>
@@ -32053,7 +32081,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>26</v>
       </c>
@@ -32079,7 +32107,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -32105,7 +32133,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>26</v>
       </c>
@@ -32128,7 +32156,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>26</v>
       </c>
@@ -32151,7 +32179,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>26</v>
       </c>
@@ -32180,7 +32208,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -32209,7 +32237,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>23</v>
       </c>
@@ -32241,7 +32269,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>16</v>
       </c>
@@ -32258,7 +32286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -32284,7 +32312,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>23</v>
       </c>
@@ -32304,7 +32332,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>26</v>
       </c>
@@ -32333,7 +32361,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -32350,7 +32378,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>23</v>
       </c>
@@ -32379,7 +32407,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -32396,7 +32424,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -32416,7 +32444,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>26</v>
       </c>
@@ -32442,7 +32470,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>26</v>
       </c>
@@ -32468,7 +32496,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>26</v>
       </c>
@@ -32497,7 +32525,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>26</v>
       </c>
@@ -32526,7 +32554,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>16</v>
       </c>
@@ -32543,7 +32571,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>23</v>
       </c>
@@ -32563,7 +32591,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>23</v>
       </c>
@@ -32595,7 +32623,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -32612,7 +32640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>26</v>
       </c>
@@ -32641,7 +32669,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>23</v>
       </c>
@@ -32667,7 +32695,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>23</v>
       </c>
@@ -32696,7 +32724,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>23</v>
       </c>
@@ -32725,7 +32753,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>23</v>
       </c>
@@ -32754,7 +32782,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>16</v>
       </c>
@@ -32774,7 +32802,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>26</v>
       </c>
@@ -32797,7 +32825,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -32823,7 +32851,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>26</v>
       </c>
@@ -32849,7 +32877,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>23</v>
       </c>
@@ -32875,7 +32903,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>16</v>
       </c>
@@ -32892,7 +32920,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>23</v>
       </c>
@@ -32915,7 +32943,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>26</v>
       </c>
@@ -32941,7 +32969,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>26</v>
       </c>
@@ -32967,7 +32995,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>26</v>
       </c>
@@ -32993,7 +33021,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>23</v>
       </c>
@@ -33019,7 +33047,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>16</v>
       </c>
@@ -33036,7 +33064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>26</v>
       </c>
@@ -33062,7 +33090,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>26</v>
       </c>
@@ -33088,7 +33116,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>26</v>
       </c>
@@ -33117,7 +33145,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>26</v>
       </c>
@@ -33143,7 +33171,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>26</v>
       </c>
@@ -33169,7 +33197,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -33195,7 +33223,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>26</v>
       </c>
@@ -33221,7 +33249,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>23</v>
       </c>
@@ -33247,7 +33275,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>26</v>
       </c>
@@ -33273,7 +33301,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>23</v>
       </c>
@@ -33302,7 +33330,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>26</v>
       </c>
@@ -33331,7 +33359,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>16</v>
       </c>
@@ -33348,7 +33376,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>26</v>
       </c>
@@ -33374,7 +33402,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>26</v>
       </c>
@@ -33397,7 +33425,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>26</v>
       </c>
@@ -33423,7 +33451,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>26</v>
       </c>
@@ -33452,7 +33480,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>26</v>
       </c>
@@ -33475,7 +33503,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>26</v>
       </c>
@@ -33501,7 +33529,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>26</v>
       </c>
@@ -33530,7 +33558,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>26</v>
       </c>
@@ -33559,7 +33587,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>16</v>
       </c>
@@ -33579,7 +33607,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>26</v>
       </c>
@@ -33608,7 +33636,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -33637,7 +33665,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>23</v>
       </c>
@@ -33660,7 +33688,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>26</v>
       </c>
@@ -33686,7 +33714,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>26</v>
       </c>
@@ -33712,7 +33740,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>23</v>
       </c>
@@ -33738,7 +33766,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>23</v>
       </c>
@@ -33764,7 +33792,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>23</v>
       </c>
@@ -33790,7 +33818,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>23</v>
       </c>
@@ -33816,7 +33844,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>26</v>
       </c>
@@ -33845,7 +33873,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>26</v>
       </c>
@@ -33877,7 +33905,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>16</v>
       </c>
@@ -33894,7 +33922,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>26</v>
       </c>
@@ -33920,7 +33948,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>26</v>
       </c>
@@ -33949,7 +33977,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>26</v>
       </c>
@@ -33978,7 +34006,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>26</v>
       </c>
@@ -34007,7 +34035,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>26</v>
       </c>
@@ -34036,7 +34064,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>16</v>
       </c>
@@ -34053,7 +34081,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>26</v>
       </c>
@@ -34082,7 +34110,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>26</v>
       </c>
@@ -34111,7 +34139,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>26</v>
       </c>
@@ -34140,7 +34168,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -34169,7 +34197,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>26</v>
       </c>
@@ -34198,7 +34226,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>23</v>
       </c>
@@ -34224,7 +34252,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>26</v>
       </c>
@@ -34253,7 +34281,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>26</v>
       </c>
@@ -34282,7 +34310,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>16</v>
       </c>
@@ -34302,7 +34330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>16</v>
       </c>
@@ -34322,7 +34350,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>16</v>
       </c>
@@ -34342,7 +34370,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>16</v>
       </c>
@@ -34362,7 +34390,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>16</v>
       </c>
@@ -34382,7 +34410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>16</v>
       </c>
@@ -34402,7 +34430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>16</v>
       </c>
@@ -34422,7 +34450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>16</v>
       </c>
@@ -34442,7 +34470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>16</v>
       </c>
@@ -34462,7 +34490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>16</v>
       </c>
@@ -34482,7 +34510,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>16</v>
       </c>
